--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2411313.644027912</v>
+        <v>2409618.785794019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107716</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>190.3453970742847</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.80288507895745</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>107.9808172638258</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -941,13 +941,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.75433449706937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>88.89269917859714</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>145.2561804265703</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>183.4693513325733</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>66.65516930006964</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224812</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D11" t="n">
         <v>329.7287713721565</v>
       </c>
       <c r="E11" t="n">
-        <v>325.0770795447495</v>
+        <v>356.9760998237353</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G11" t="n">
         <v>387.9966247312781</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022873</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638752</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171957</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216085</v>
+        <v>75.72043247203852</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688866</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299426</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075272</v>
+        <v>361.2836684075271</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.661202769686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
-        <v>125.4684930207446</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701493</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754402</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>10.6427291752038</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880646</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035683</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>357.7795714149541</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D14" t="n">
         <v>329.7287713721565</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237354</v>
+        <v>356.9760998237353</v>
       </c>
       <c r="F14" t="n">
-        <v>381.921775493185</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>387.9966247312781</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855048</v>
+        <v>94.85220997855042</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171957</v>
+        <v>48.09241737464824</v>
       </c>
       <c r="U14" t="n">
-        <v>83.45655837857865</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688866</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075272</v>
+        <v>361.2836684075271</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.85447651461403</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77081274701493</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969401</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320202</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754402</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.1272854413</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.6303831035683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C17" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D17" t="n">
         <v>271.9652662277782</v>
@@ -1856,13 +1856,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G17" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417218</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949686</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728174</v>
@@ -1910,7 +1910,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.64386457840365</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307804</v>
+        <v>70.12988281307801</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263669</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342082</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2068,7 +2068,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.8668779591901</v>
+        <v>6.49884012325613</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488058</v>
       </c>
       <c r="G20" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H20" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949686</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U20" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V20" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W20" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X20" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y20" t="n">
         <v>303.5201632631488</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572305</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G22" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307801</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342082</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525617</v>
@@ -2293,19 +2293,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V22" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9918799961324</v>
+        <v>98.15288786592119</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.4038453511996</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2327,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
         <v>130.0828834728173</v>
@@ -2375,13 +2375,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y23" t="n">
         <v>303.5201632631488</v>
@@ -2415,7 +2415,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I24" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S24" t="n">
         <v>148.3099331995005</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2458470430379407</v>
+        <v>0.2458470430379691</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G25" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307798</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
@@ -2564,16 +2564,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T26" t="n">
         <v>130.0828834728173</v>
@@ -2612,13 +2612,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V26" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
         <v>303.5201632631488</v>
@@ -2652,7 +2652,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I27" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S27" t="n">
         <v>148.3099331995005</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530757</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G28" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307797</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U28" t="n">
-        <v>203.5437109310618</v>
+        <v>74.17567309512791</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W28" t="n">
-        <v>115.4444927103884</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
         <v>142.9918799961324</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E29" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949693</v>
       </c>
       <c r="T29" t="n">
         <v>130.0828834728174</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V29" t="n">
         <v>245.0344830772302</v>
@@ -2858,7 +2858,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903256</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572309</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530761</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366443</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F31" t="n">
-        <v>62.7032726300265</v>
+        <v>3.465117607168113</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927564</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307803</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263665</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342089</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T31" t="n">
         <v>140.7202764876419</v>
@@ -3007,16 +3007,16 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V31" t="n">
-        <v>40.0518300949889</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W31" t="n">
         <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>97.11420478903254</v>
       </c>
       <c r="C34" t="n">
-        <v>43.30929164584618</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
         <v>65.8976976253076</v>
@@ -3199,13 +3199,13 @@
         <v>62.70327263002649</v>
       </c>
       <c r="G34" t="n">
-        <v>84.21824836927563</v>
+        <v>1.991186706761302</v>
       </c>
       <c r="H34" t="n">
         <v>70.129882813078</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G35" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H35" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W35" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X35" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
         <v>303.5201632631488</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C37" t="n">
-        <v>52.27521265882237</v>
+        <v>18.87719512345287</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530754</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366436</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002643</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307794</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263657</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T37" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X37" t="n">
         <v>142.9918799961324</v>
@@ -3512,16 +3512,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T38" t="n">
         <v>130.0828834728173</v>
@@ -3560,13 +3560,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X38" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y38" t="n">
         <v>303.5201632631488</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572302</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D40" t="n">
-        <v>6.659542602451339</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002643</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263657</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342075</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310618</v>
+        <v>184.0199218985744</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
         <v>142.9918799961324</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E41" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T41" t="n">
         <v>130.0828834728174</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V41" t="n">
         <v>245.0344830772302</v>
@@ -3806,7 +3806,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903254</v>
+        <v>94.16562683678683</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D43" t="n">
-        <v>40.24024002203672</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T43" t="n">
         <v>140.7202764876419</v>
@@ -3961,10 +3961,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3986,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G44" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H44" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949681</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728173</v>
@@ -4034,13 +4034,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y44" t="n">
         <v>303.5201632631488</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903254</v>
+        <v>97.1142047890325</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572304</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2458470430373472</v>
+        <v>65.89769762530756</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366437</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002645</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927563</v>
+        <v>65.9874009490561</v>
       </c>
       <c r="H46" t="n">
-        <v>70.129882813078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342077</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X46" t="n">
         <v>142.9918799961324</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.0604900729671</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C3" t="n">
-        <v>279.0604900729671</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
         <v>223.7040404982626</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="X3" t="n">
-        <v>655.0361258579891</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="Y3" t="n">
-        <v>447.2758270930352</v>
+        <v>372.6384501595139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4513,25 +4513,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>509.8046290289238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>509.8046290289238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>509.8046290289238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>502.8591282797204</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313.4946457291688</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C6" t="n">
-        <v>313.4946457291688</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.333740938343</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.333740938343</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.333740938343</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>582.1816327066002</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>582.1816327066002</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>374.3301325010674</v>
       </c>
       <c r="Y6" t="n">
-        <v>481.7099827492369</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4781,13 +4781,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
         <v>274.7999090013961</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G9" t="n">
-        <v>87.36372960145263</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>226.0945550188371</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>226.0945550188371</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4942,13 +4942,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1763.666441571081</v>
+        <v>2181.667245381354</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.91025821504</v>
+        <v>1837.911062025313</v>
       </c>
       <c r="D11" t="n">
-        <v>1086.850893192659</v>
+        <v>1504.851697002933</v>
       </c>
       <c r="E11" t="n">
-        <v>758.4902067838216</v>
+        <v>1144.269777989059</v>
       </c>
       <c r="F11" t="n">
-        <v>758.4902067838216</v>
+        <v>758.4902067838211</v>
       </c>
       <c r="G11" t="n">
-        <v>366.5744242269749</v>
+        <v>366.5744242269748</v>
       </c>
       <c r="H11" t="n">
         <v>73.20601563880585</v>
@@ -5039,10 +5039,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5054,7 +5054,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P11" t="n">
         <v>3418.758763931392</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390924</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504867</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="U11" t="n">
-        <v>3110.277740084177</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="V11" t="n">
-        <v>2804.421186324977</v>
+        <v>3583.815496615001</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.858864639233</v>
+        <v>3256.253174929258</v>
       </c>
       <c r="X11" t="n">
-        <v>2128.599439962523</v>
+        <v>2907.993750252548</v>
       </c>
       <c r="Y11" t="n">
-        <v>1763.666441571081</v>
+        <v>2543.060751861106</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J12" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K12" t="n">
-        <v>516.6851972600602</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L12" t="n">
-        <v>650.0054335400104</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M12" t="n">
-        <v>1285.988742254183</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.511650110079</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.740129911879</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P12" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.8521730028771</v>
+        <v>567.259280277725</v>
       </c>
       <c r="C13" t="n">
-        <v>324.8521730028771</v>
+        <v>567.259280277725</v>
       </c>
       <c r="D13" t="n">
-        <v>199.9418671749115</v>
+        <v>567.259280277725</v>
       </c>
       <c r="E13" t="n">
-        <v>199.9418671749115</v>
+        <v>567.259280277725</v>
       </c>
       <c r="F13" t="n">
-        <v>199.9418671749115</v>
+        <v>445.5756663641848</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880585</v>
+        <v>302.1597537241303</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880585</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="I13" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965295</v>
+        <v>79.32466191965314</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420085</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895914</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475063</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183685</v>
+        <v>866.4434782183689</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S13" t="n">
-        <v>1055.7929096736</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="T13" t="n">
-        <v>1055.7929096736</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="U13" t="n">
-        <v>791.8462267691149</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="V13" t="n">
-        <v>791.8462267691149</v>
+        <v>1027.056362289475</v>
       </c>
       <c r="W13" t="n">
-        <v>527.6353903165243</v>
+        <v>762.8455258368849</v>
       </c>
       <c r="X13" t="n">
-        <v>324.8521730028771</v>
+        <v>762.8455258368849</v>
       </c>
       <c r="Y13" t="n">
-        <v>324.8521730028771</v>
+        <v>567.259280277725</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1984.109149902834</v>
+        <v>1891.697987285765</v>
       </c>
       <c r="C14" t="n">
-        <v>1640.352966546792</v>
+        <v>1547.941803929723</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.293601524412</v>
+        <v>1214.882438907342</v>
       </c>
       <c r="E14" t="n">
-        <v>946.7116825105379</v>
+        <v>854.3005198934684</v>
       </c>
       <c r="F14" t="n">
-        <v>560.9321113053004</v>
+        <v>854.3005198934684</v>
       </c>
       <c r="G14" t="n">
-        <v>169.0163287484528</v>
+        <v>462.3847373366218</v>
       </c>
       <c r="H14" t="n">
         <v>169.0163287484528</v>
@@ -5276,10 +5276,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K14" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5291,7 +5291,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O14" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P14" t="n">
         <v>3418.758763931392</v>
@@ -5303,25 +5303,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3660.300781940293</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
-        <v>3470.556955054237</v>
+        <v>3479.931484022592</v>
       </c>
       <c r="U14" t="n">
-        <v>3386.257401136481</v>
+        <v>3251.443367601902</v>
       </c>
       <c r="V14" t="n">
-        <v>3386.257401136481</v>
+        <v>2945.586813842702</v>
       </c>
       <c r="W14" t="n">
-        <v>3058.695079450737</v>
+        <v>2618.024492156957</v>
       </c>
       <c r="X14" t="n">
-        <v>2710.435654774028</v>
+        <v>2618.024492156957</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.502656382586</v>
+        <v>2253.091493765516</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K15" t="n">
-        <v>516.6851972600602</v>
+        <v>182.1357483745625</v>
       </c>
       <c r="L15" t="n">
-        <v>650.0054335400104</v>
+        <v>682.5879265049372</v>
       </c>
       <c r="M15" t="n">
-        <v>1285.988742254183</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.511650110079</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O15" t="n">
-        <v>2109.740129911879</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P15" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.0748699134132</v>
+        <v>568.2824263622075</v>
       </c>
       <c r="C16" t="n">
-        <v>324.0748699134132</v>
+        <v>568.2824263622075</v>
       </c>
       <c r="D16" t="n">
-        <v>324.0748699134132</v>
+        <v>568.2824263622075</v>
       </c>
       <c r="E16" t="n">
-        <v>324.0748699134132</v>
+        <v>445.5756663641846</v>
       </c>
       <c r="F16" t="n">
-        <v>202.3912559998729</v>
+        <v>445.5756663641846</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3912559998729</v>
+        <v>302.1597537241304</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880585</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="I16" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965304</v>
+        <v>79.32466191965314</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420087</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895915</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475064</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183686</v>
+        <v>866.4434782183689</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q16" t="n">
         <v>1238.295262094752</v>
@@ -5461,25 +5461,25 @@
         <v>1238.295262094752</v>
       </c>
       <c r="S16" t="n">
-        <v>1055.7929096736</v>
+        <v>1055.792909673601</v>
       </c>
       <c r="T16" t="n">
-        <v>855.3042413584282</v>
+        <v>1055.792909673601</v>
       </c>
       <c r="U16" t="n">
-        <v>591.3575584539431</v>
+        <v>1055.792909673601</v>
       </c>
       <c r="V16" t="n">
-        <v>591.3575584539431</v>
+        <v>920.3108031672371</v>
       </c>
       <c r="W16" t="n">
-        <v>591.3575584539431</v>
+        <v>920.3108031672371</v>
       </c>
       <c r="X16" t="n">
-        <v>388.5743411402959</v>
+        <v>920.3108031672371</v>
       </c>
       <c r="Y16" t="n">
-        <v>388.5743411402959</v>
+        <v>724.7245576080771</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E17" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G17" t="n">
         <v>345.6907875499988</v>
@@ -5510,7 +5510,7 @@
         <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
         <v>258.9898176069164</v>
@@ -5522,7 +5522,7 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5540,25 +5540,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K18" t="n">
-        <v>254.8646126176073</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L18" t="n">
-        <v>755.3167907479819</v>
+        <v>633.8822212930266</v>
       </c>
       <c r="M18" t="n">
-        <v>1391.300099462154</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N18" t="n">
-        <v>1585.274056717932</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O18" t="n">
-        <v>2130.426232603694</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P18" t="n">
-        <v>2550.955847539418</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>483.6140402594165</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C19" t="n">
-        <v>398.2311658091911</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2311658091911</v>
+        <v>398.2311658091908</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044795</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842507</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G19" t="n">
         <v>185.4658039375075</v>
@@ -5668,25 +5668,25 @@
         <v>114.627538469752</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N19" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O19" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
         <v>1611.737284042549</v>
@@ -5701,22 +5701,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V19" t="n">
-        <v>1005.137116499227</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399481</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196122</v>
+        <v>654.8370125196144</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537636</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F20" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G20" t="n">
         <v>345.6907875499988</v>
       </c>
       <c r="H20" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
@@ -5765,7 +5765,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O20" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P20" t="n">
         <v>3418.758763931393</v>
@@ -5777,25 +5777,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T20" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K21" t="n">
-        <v>341.2911753664965</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L21" t="n">
-        <v>474.6114116464466</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M21" t="n">
-        <v>1110.594720360619</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N21" t="n">
-        <v>1779.117628216515</v>
+        <v>1847.094641360385</v>
       </c>
       <c r="O21" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P21" t="n">
         <v>2429.521278084463</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>442.19251742847</v>
+        <v>464.794496743845</v>
       </c>
       <c r="C22" t="n">
-        <v>356.8096429782447</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D22" t="n">
-        <v>356.8096429782447</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E22" t="n">
-        <v>292.4498578735332</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F22" t="n">
-        <v>229.1132188533044</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G22" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H22" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
         <v>136.5105320125876</v>
@@ -5917,7 +5917,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683041</v>
@@ -5950,10 +5950,10 @@
         <v>799.2732549399498</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196141</v>
+        <v>700.1289237622516</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.2876737810282</v>
+        <v>562.8896530964031</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5975,25 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223496</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
         <v>1831.488208231171</v>
@@ -6002,13 +6002,13 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
         <v>3660.300781940293</v>
@@ -6023,16 +6023,16 @@
         <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W23" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K24" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L24" t="n">
-        <v>271.2266688748131</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M24" t="n">
-        <v>907.2099775889852</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N24" t="n">
-        <v>1575.732885444881</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
-        <v>2120.885061330643</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
-        <v>2541.414676266367</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.5025855012075</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C25" t="n">
-        <v>334.1197110509822</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D25" t="n">
-        <v>334.1197110509822</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
@@ -6166,7 +6166,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q25" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R25" t="n">
         <v>1648.165075188308</v>
@@ -6184,13 +6184,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399498</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196141</v>
+        <v>654.8370125196143</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537656</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I26" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
@@ -6239,7 +6239,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O26" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P26" t="n">
         <v>3418.758763931393</v>
@@ -6254,7 +6254,7 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U26" t="n">
         <v>3285.318664764112</v>
@@ -6300,19 +6300,19 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I27" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J27" t="n">
-        <v>190.1641956615502</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>516.6851972600601</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L27" t="n">
         <v>1017.137375390435</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.072670992107</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N27" t="n">
         <v>1463.839487262977</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>508.7558483631241</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C28" t="n">
-        <v>423.3729739128988</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D28" t="n">
-        <v>356.8096429782447</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E28" t="n">
-        <v>292.4498578735332</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F28" t="n">
-        <v>229.1132188533045</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G28" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H28" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
         <v>317.6953254278777</v>
@@ -6391,7 +6391,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
@@ -6412,22 +6412,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227434</v>
+        <v>1306.943081920297</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W28" t="n">
-        <v>888.5265178018667</v>
+        <v>929.9480406328128</v>
       </c>
       <c r="X28" t="n">
-        <v>744.0902753815308</v>
+        <v>785.5117982124771</v>
       </c>
       <c r="Y28" t="n">
-        <v>606.8510047156823</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E29" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135345</v>
+        <v>679.2595952135335</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551417</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880587</v>
@@ -6482,7 +6482,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R29" t="n">
         <v>3660.300781940293</v>
@@ -6497,16 +6497,16 @@
         <v>3285.318664764112</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W29" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J30" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600602</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>633.8822212930266</v>
       </c>
       <c r="M30" t="n">
-        <v>1192.072670992107</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N30" t="n">
         <v>1463.839487262977</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.1773711940705</v>
+        <v>419.5025855012057</v>
       </c>
       <c r="C31" t="n">
-        <v>464.7944967438452</v>
+        <v>334.1197110509803</v>
       </c>
       <c r="D31" t="n">
-        <v>398.231165809191</v>
+        <v>267.5563801163261</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044795</v>
+        <v>203.1965950116145</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842507</v>
+        <v>199.6964762164952</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375076</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H31" t="n">
         <v>114.627538469752</v>
@@ -6622,19 +6622,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L31" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P31" t="n">
         <v>1611.737284042549</v>
@@ -6643,28 +6643,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R31" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T31" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V31" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W31" t="n">
-        <v>929.9480406328128</v>
+        <v>799.2732549399485</v>
       </c>
       <c r="X31" t="n">
-        <v>785.5117982124771</v>
+        <v>654.8370125196127</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.2725275466287</v>
+        <v>517.5977418537639</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D32" t="n">
         <v>1308.927135646023</v>
       </c>
       <c r="E32" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135346</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499989</v>
+        <v>345.6907875499993</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223499</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6725,10 +6725,10 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S32" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U32" t="n">
         <v>3285.318664764112</v>
@@ -6737,7 +6737,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X32" t="n">
         <v>2478.681289322392</v>
@@ -6777,25 +6777,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J33" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K33" t="n">
-        <v>516.6851972600602</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L33" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M33" t="n">
-        <v>1192.072670992107</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.839487262977</v>
+        <v>1468.315876695188</v>
       </c>
       <c r="O33" t="n">
-        <v>2008.991663148739</v>
+        <v>2013.46805258095</v>
       </c>
       <c r="P33" t="n">
-        <v>2429.521278084463</v>
+        <v>2433.997667516674</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.936419551312</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>467.1197331511275</v>
+        <v>467.1197331511272</v>
       </c>
       <c r="C34" t="n">
-        <v>423.372973912899</v>
+        <v>381.7368587009018</v>
       </c>
       <c r="D34" t="n">
-        <v>356.8096429782448</v>
+        <v>315.1735277662476</v>
       </c>
       <c r="E34" t="n">
-        <v>292.4498578735333</v>
+        <v>250.8137426615361</v>
       </c>
       <c r="F34" t="n">
-        <v>229.1132188533045</v>
+        <v>187.4771036413073</v>
       </c>
       <c r="G34" t="n">
-        <v>144.0442811065614</v>
+        <v>185.465803937508</v>
       </c>
       <c r="H34" t="n">
-        <v>73.20601563880587</v>
+        <v>114.6275384697525</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125875</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278777</v>
@@ -6865,7 +6865,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
@@ -6895,13 +6895,13 @@
         <v>1052.754264149149</v>
       </c>
       <c r="W34" t="n">
-        <v>846.8904025898698</v>
+        <v>846.8904025898696</v>
       </c>
       <c r="X34" t="n">
-        <v>702.4541601695341</v>
+        <v>702.4541601695339</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.2148895036856</v>
+        <v>565.2148895036853</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D35" t="n">
         <v>1308.927135646023</v>
@@ -6926,7 +6926,7 @@
         <v>679.2595952135343</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.597741853766</v>
+        <v>419.5025855012071</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438448</v>
+        <v>400.4347116391335</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091907</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H37" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V37" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399502</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196145</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.597741853766</v>
+        <v>517.5977418537652</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E38" t="n">
         <v>1006.69219152546</v>
@@ -7163,16 +7163,16 @@
         <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I38" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K38" t="n">
         <v>658.1763815223499</v>
@@ -7187,10 +7187,10 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q38" t="n">
         <v>3660.300781940293</v>
@@ -7205,7 +7205,7 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U38" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V38" t="n">
         <v>3037.809085898222</v>
@@ -7239,31 +7239,31 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H39" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I39" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J39" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K39" t="n">
-        <v>415.9367304969207</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L39" t="n">
-        <v>549.2569667768709</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M39" t="n">
-        <v>1185.240275491043</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N39" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O39" t="n">
         <v>2008.991663148739</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.5025855012082</v>
+        <v>486.840732173842</v>
       </c>
       <c r="C40" t="n">
-        <v>334.1197110509829</v>
+        <v>401.4578577236166</v>
       </c>
       <c r="D40" t="n">
-        <v>327.3929003414352</v>
+        <v>334.8945267889626</v>
       </c>
       <c r="E40" t="n">
-        <v>263.0331152367237</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="F40" t="n">
-        <v>199.696476216495</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="G40" t="n">
-        <v>114.6275384697519</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I40" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J40" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278778</v>
+        <v>317.695325427878</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683953</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683042</v>
@@ -7354,28 +7354,28 @@
         <v>1695.782222838229</v>
       </c>
       <c r="R40" t="n">
-        <v>1648.165075188309</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.009697660469</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238608</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227435</v>
+        <v>1243.606442900069</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499229</v>
+        <v>1072.475263171864</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399504</v>
+        <v>866.6114016125846</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196147</v>
+        <v>722.1751591922488</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.5977418537663</v>
+        <v>584.9358885264</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D41" t="n">
         <v>1308.927135646023</v>
@@ -7397,13 +7397,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880587</v>
@@ -7439,7 +7439,7 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U41" t="n">
         <v>3285.318664764112</v>
@@ -7494,16 +7494,16 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L42" t="n">
-        <v>1017.137375390435</v>
+        <v>864.5351077304086</v>
       </c>
       <c r="M42" t="n">
-        <v>1192.072670992107</v>
+        <v>1500.518416444581</v>
       </c>
       <c r="N42" t="n">
-        <v>1463.839487262977</v>
+        <v>2169.041324300477</v>
       </c>
       <c r="O42" t="n">
-        <v>2008.991663148739</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P42" t="n">
         <v>2429.521278084463</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012077</v>
+        <v>422.4809470691305</v>
       </c>
       <c r="C43" t="n">
-        <v>334.1197110509824</v>
+        <v>337.0980726189051</v>
       </c>
       <c r="D43" t="n">
-        <v>293.473003958016</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="E43" t="n">
-        <v>229.1132188533045</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="F43" t="n">
-        <v>229.1132188533045</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G43" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H43" t="n">
-        <v>73.20601563880587</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
         <v>317.6953254278775</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7594,25 +7594,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T43" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399482</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196124</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537658</v>
+        <v>517.5977418537638</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H44" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069154</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223491</v>
       </c>
       <c r="L44" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M44" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O44" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P44" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q44" t="n">
         <v>3660.300781940293</v>
@@ -7676,22 +7676,22 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W44" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G45" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H45" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J45" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>415.9367304969207</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L45" t="n">
-        <v>549.2569667768709</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M45" t="n">
-        <v>1185.240275491043</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N45" t="n">
-        <v>1853.763183346939</v>
+        <v>1847.094641360385</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.991663148739</v>
+        <v>2392.246817246147</v>
       </c>
       <c r="P45" t="n">
-        <v>2429.521278084463</v>
+        <v>2497.498291228333</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012071</v>
+        <v>419.502585501208</v>
       </c>
       <c r="C46" t="n">
-        <v>334.1197110509818</v>
+        <v>334.1197110509827</v>
       </c>
       <c r="D46" t="n">
-        <v>333.8713807044794</v>
+        <v>267.5563801163286</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044794</v>
+        <v>203.1965950116171</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842506</v>
+        <v>139.8599559913883</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375075</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H46" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O46" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P46" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R46" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V46" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399504</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196146</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537661</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,10 +8541,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6966405963616</v>
+        <v>44.67607654515086</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>44.67607654515098</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6966405963616</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>101.8535028037987</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.41610646821769</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858961</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>205.4391341127612</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>6.735900996519064</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>7.951459559858961</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.05365320867332</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N27" t="n">
-        <v>78.57864546978979</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>101.8535028037987</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>78.57864546978951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>78.57864546978951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>205.5556822487674</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>162.6991089690034</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>216.6966405963619</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>78.57864546978951</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>162.6991089690034</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>141.413638095576</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.89902027898586</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>381.921775493185</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855048</v>
+        <v>94.85220997855042</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4731875638749</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>227.0775557495699</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334109</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C13" t="n">
         <v>142.2925508501014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980428</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>16.5132604929094</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701499</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>104.9044813177991</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320202</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753016</v>
+        <v>216.5406439000977</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022873</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638752</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>139.7539712425474</v>
       </c>
       <c r="U14" t="n">
-        <v>142.746676877905</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.02323341879688</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
-        <v>141.981753513654</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701499</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>104.9044813177991</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753016</v>
+        <v>93.05608763400159</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.47034021062893</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.3680378359339</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>44.83899213021122</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.4630326079904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530757</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E25" t="n">
         <v>63.47034021062645</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>129.3680378359338</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>88.36073023329776</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59.23815502285845</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.12988281307808</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>129.3680378359344</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.2197540598769</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>82.22706166251442</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903248</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>32.25383304690065</v>
+        <v>65.6518505822702</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.2381550228562</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307794</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>19.52378903248743</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.948577952245798</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.65745760327088</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263664</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.65185058227026</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.23084742021949</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263659</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741880.1961268304</v>
+        <v>741880.1961268305</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741880.1961268302</v>
+        <v>741880.1961268305</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>846451.4149645516</v>
+        <v>846451.4149645517</v>
       </c>
     </row>
     <row r="8">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>519039.2708470663</v>
+        <v>519039.2708470664</v>
       </c>
       <c r="F2" t="n">
         <v>519039.2708470662</v>
       </c>
       <c r="G2" t="n">
-        <v>593004.2792932607</v>
+        <v>593004.2792932608</v>
       </c>
       <c r="H2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="I2" t="n">
+        <v>593004.2792932609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>593004.2792932605</v>
+      </c>
+      <c r="K2" t="n">
+        <v>593004.2792932609</v>
+      </c>
+      <c r="L2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="M2" t="n">
         <v>593004.279293261</v>
-      </c>
-      <c r="I2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="J2" t="n">
-        <v>593004.2792932608</v>
-      </c>
-      <c r="K2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="L2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="M2" t="n">
-        <v>593004.2792932609</v>
       </c>
       <c r="N2" t="n">
         <v>593004.2792932608</v>
       </c>
       <c r="O2" t="n">
-        <v>593004.2792932605</v>
+        <v>593004.2792932611</v>
       </c>
       <c r="P2" t="n">
-        <v>593004.2792932609</v>
+        <v>593004.2792932604</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893664</v>
+        <v>691230.6639893665</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550265</v>
+        <v>46210.80411550264</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792739</v>
+        <v>83023.3587979274</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550267</v>
+        <v>46210.80411550269</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701942</v>
+        <v>167978.674170194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882107</v>
+        <v>19963.41619882111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>34014.34862236754</v>
+        <v>34014.34862236761</v>
       </c>
       <c r="F4" t="n">
-        <v>34014.34862236754</v>
+        <v>34014.3486223676</v>
       </c>
       <c r="G4" t="n">
+        <v>92387.01173515843</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92387.01173515843</v>
+      </c>
+      <c r="I4" t="n">
+        <v>92387.01173515843</v>
+      </c>
+      <c r="J4" t="n">
+        <v>92387.01173515842</v>
+      </c>
+      <c r="K4" t="n">
         <v>92387.01173515836</v>
-      </c>
-      <c r="H4" t="n">
-        <v>92387.01173515845</v>
-      </c>
-      <c r="I4" t="n">
-        <v>92387.01173515848</v>
-      </c>
-      <c r="J4" t="n">
-        <v>92387.01173515845</v>
-      </c>
-      <c r="K4" t="n">
-        <v>92387.01173515842</v>
       </c>
       <c r="L4" t="n">
         <v>92387.01173515843</v>
       </c>
       <c r="M4" t="n">
+        <v>92387.01173515843</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92387.01173515842</v>
+      </c>
+      <c r="O4" t="n">
+        <v>92387.01173515836</v>
+      </c>
+      <c r="P4" t="n">
         <v>92387.01173515848</v>
-      </c>
-      <c r="N4" t="n">
-        <v>92387.01173515848</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92387.01173515842</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92387.01173515842</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>70487.90653947927</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="H5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="I5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="J5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="K5" t="n">
         <v>75344.02665346202</v>
@@ -26503,13 +26503,13 @@
         <v>75344.02665346203</v>
       </c>
       <c r="N5" t="n">
+        <v>75344.02665346203</v>
+      </c>
+      <c r="O5" t="n">
         <v>75344.02665346202</v>
       </c>
-      <c r="O5" t="n">
-        <v>75344.02665346203</v>
-      </c>
       <c r="P5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178711.9441524939</v>
+        <v>178711.944152494</v>
       </c>
       <c r="C6" t="n">
-        <v>259481.3756840417</v>
+        <v>259481.3756840415</v>
       </c>
       <c r="D6" t="n">
         <v>259481.3756840417</v>
       </c>
       <c r="E6" t="n">
-        <v>-276693.6483041469</v>
+        <v>-276956.4621396799</v>
       </c>
       <c r="F6" t="n">
-        <v>414537.0156852194</v>
+        <v>414274.2018496865</v>
       </c>
       <c r="G6" t="n">
-        <v>379062.4367891377</v>
+        <v>379054.6747068675</v>
       </c>
       <c r="H6" t="n">
-        <v>425273.2409046405</v>
+        <v>425265.4788223701</v>
       </c>
       <c r="I6" t="n">
-        <v>425273.2409046402</v>
+        <v>425265.4788223702</v>
       </c>
       <c r="J6" t="n">
-        <v>342249.8821067129</v>
+        <v>342242.1200244426</v>
       </c>
       <c r="K6" t="n">
-        <v>425273.2409046402</v>
+        <v>425265.4788223704</v>
       </c>
       <c r="L6" t="n">
-        <v>379062.4367891375</v>
+        <v>379054.6747068675</v>
       </c>
       <c r="M6" t="n">
-        <v>257294.5667344462</v>
+        <v>257286.8046521763</v>
       </c>
       <c r="N6" t="n">
-        <v>425273.2409046402</v>
+        <v>425265.4788223702</v>
       </c>
       <c r="O6" t="n">
-        <v>405309.8247058191</v>
+        <v>405302.0626235494</v>
       </c>
       <c r="P6" t="n">
-        <v>425273.2409046405</v>
+        <v>425265.4788223697</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
     </row>
     <row r="3">
@@ -26750,16 +26750,16 @@
         <v>585.0208306634613</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="J3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="K3" t="n">
         <v>585.0208306634613</v>
@@ -26802,16 +26802,16 @@
         <v>915.0751954850732</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850733</v>
@@ -26823,13 +26823,13 @@
         <v>915.0751954850733</v>
       </c>
       <c r="N4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="O4" t="n">
         <v>915.0751954850733</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850732</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437831</v>
+        <v>57.76350514437829</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437833</v>
+        <v>57.76350514437836</v>
       </c>
       <c r="M2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852634</v>
+        <v>24.95427024852639</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437831</v>
+        <v>57.76350514437829</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>149.1294050414824</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>291.5363232803187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>92.64218048568131</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>124.8197698855995</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.4836041589842</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55236638604161</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>26.42699067726755</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,13 +27752,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>174.9274946967227</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>198.4610187396885</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27944,10 +27944,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>45.58027493642682</v>
+        <v>62.92434029420124</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="K13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="L13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="M13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="N13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="O13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="P13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="R13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="S13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="K16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="L16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="M16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="N16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="O16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="R16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="S16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281196242</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.7177753929048</v>
       </c>
     </row>
   </sheetData>
@@ -32224,28 +32224,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
         <v>396.2590089746664</v>
@@ -32254,13 +32254,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32309,10 +32309,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
         <v>203.1953954956288</v>
@@ -32321,7 +32321,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
         <v>327.2750022406848</v>
@@ -32336,16 +32336,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O19" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
         <v>396.2590089746664</v>
@@ -32491,13 +32491,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32546,10 +32546,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
         <v>203.1953954956288</v>
@@ -32558,7 +32558,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
         <v>327.2750022406848</v>
@@ -32573,16 +32573,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O22" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,28 +32698,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H23" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I23" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J23" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K23" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L23" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M23" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N23" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O23" t="n">
         <v>396.2590089746664</v>
@@ -32728,13 +32728,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q23" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R23" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S23" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T23" t="n">
         <v>10.29519069840925</v>
@@ -32783,10 +32783,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I24" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J24" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K24" t="n">
         <v>203.1953954956288</v>
@@ -32795,7 +32795,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M24" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N24" t="n">
         <v>327.2750022406848</v>
@@ -32810,16 +32810,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R24" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S24" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T24" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H25" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I25" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K25" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L25" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M25" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N25" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O25" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P25" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R25" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S25" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T25" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,28 +32935,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H26" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I26" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J26" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K26" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L26" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M26" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N26" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O26" t="n">
         <v>396.2590089746664</v>
@@ -32965,13 +32965,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R26" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S26" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T26" t="n">
         <v>10.29519069840925</v>
@@ -33020,10 +33020,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I27" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J27" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K27" t="n">
         <v>203.1953954956288</v>
@@ -33032,7 +33032,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M27" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N27" t="n">
         <v>327.2750022406848</v>
@@ -33047,16 +33047,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R27" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S27" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T27" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H28" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I28" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K28" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L28" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M28" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N28" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O28" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P28" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R28" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S28" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T28" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,10 +35261,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L12" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M12" t="n">
         <v>642.4073825395679</v>
@@ -35501,13 +35501,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P12" t="n">
-        <v>323.0112607803878</v>
+        <v>150.990696729177</v>
       </c>
       <c r="Q12" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734575</v>
+        <v>6.180450788734632</v>
       </c>
       <c r="K13" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L13" t="n">
         <v>209.3874211591745</v>
@@ -35586,7 +35586,7 @@
         <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701466</v>
+        <v>27.13037242701473</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8191935338484</v>
+        <v>110.0300330664208</v>
       </c>
       <c r="L15" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M15" t="n">
         <v>642.4073825395679</v>
@@ -35738,13 +35738,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P15" t="n">
-        <v>323.0112607803878</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734575</v>
+        <v>6.180450788734632</v>
       </c>
       <c r="K16" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L16" t="n">
         <v>209.3874211591745</v>
@@ -35823,7 +35823,7 @@
         <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701466</v>
+        <v>27.13037242701473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>65.35395652126979</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L18" t="n">
-        <v>505.5072506367421</v>
+        <v>236.5204081370817</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N18" t="n">
         <v>195.9332901573515</v>
@@ -35981,7 +35981,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.0611838503978</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311287</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O19" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139296</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O20" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K21" t="n">
-        <v>270.793090634031</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>134.6669053332829</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
-        <v>675.275664500905</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O21" t="n">
-        <v>550.6587635209717</v>
+        <v>163.5323452407613</v>
       </c>
       <c r="P21" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
@@ -36297,7 +36297,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>403.218751429731</v>
       </c>
       <c r="L23" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M23" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N23" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O23" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P23" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q23" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R23" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K24" t="n">
-        <v>65.35395652126979</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L24" t="n">
-        <v>134.6669053332829</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395678</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N24" t="n">
-        <v>675.275664500905</v>
+        <v>274.511935627141</v>
       </c>
       <c r="O24" t="n">
         <v>550.6587635209717</v>
@@ -36455,7 +36455,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.6987305908535</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
@@ -36534,7 +36534,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L26" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M26" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N26" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O26" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P26" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q26" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>176.702318789568</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N27" t="n">
-        <v>274.5119356271413</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O27" t="n">
         <v>550.6587635209717</v>
@@ -36692,7 +36692,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q27" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K28" t="n">
         <v>183.0149428437274</v>
@@ -36771,7 +36771,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>329.8191935338484</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367421</v>
+        <v>236.5204081370817</v>
       </c>
       <c r="M30" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N30" t="n">
-        <v>274.511935627141</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O30" t="n">
         <v>550.6587635209717</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311292</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K31" t="n">
         <v>183.0149428437273</v>
@@ -36996,19 +36996,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O31" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P31" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L33" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M33" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N33" t="n">
-        <v>274.511935627141</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O33" t="n">
         <v>550.6587635209717</v>
@@ -37166,7 +37166,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q33" t="n">
-        <v>230.7223651180293</v>
+        <v>226.2007596309476</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K37" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>228.0530654902732</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L39" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
-        <v>642.4073825395679</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N39" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O39" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P39" t="n">
         <v>424.7773888239633</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K40" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O40" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>627.5790040007523</v>
       </c>
       <c r="O41" t="n">
-        <v>546.9609788157253</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P41" t="n">
         <v>428.7636087999078</v>
@@ -37862,19 +37862,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L42" t="n">
-        <v>505.5072506367421</v>
+        <v>351.3635459296448</v>
       </c>
       <c r="M42" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N42" t="n">
-        <v>274.511935627141</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O42" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q42" t="n">
         <v>230.7223651180293</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K43" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L43" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283935</v>
       </c>
       <c r="K44" t="n">
         <v>403.218751429731</v>
@@ -38096,25 +38096,25 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>228.0530654902732</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L45" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N45" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O45" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P45" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.7223651180293</v>
+        <v>162.0587154777562</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311297</v>
       </c>
       <c r="K46" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L46" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M46" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O46" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139306</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
